--- a/Sprint Backlog/Sprint3/Planning and Burndown/Actual Execution and Burndown Chart.xlsx
+++ b/Sprint Backlog/Sprint3/Planning and Burndown/Actual Execution and Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qi\Desktop\Team27\Sprint Backlog\Sprint3\Planning and Burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01807850-9928-4521-A939-9169204CE7F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1835F4-08C7-442A-965C-AAE0C7459E17}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{E26ED3F2-7FF5-461C-B9EE-AAC597F16CF8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1" xr2:uid="{E26ED3F2-7FF5-461C-B9EE-AAC597F16CF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Actual" sheetId="1" r:id="rId1"/>
@@ -259,6 +259,9 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -297,40 +300,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -369,6 +340,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -403,6 +378,50 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -475,40 +494,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -547,40 +534,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -619,6 +574,96 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -655,51 +700,6 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -794,7 +794,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Provisial Burndown Chart for Sprint 3</a:t>
+              <a:t>Actual Execution Burndown Chart for Sprint 3</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -970,13 +970,13 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -990,24 +990,248 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A414-4A07-993C-F1FD1CEF774E}"/>
+              <c16:uniqueId val="{00000000-E6F0-41F2-B25E-E50D3BCB7D57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual (in story points)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.450574712643678E-2"/>
+                  <c:y val="1.5110310866364026E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E6F0-41F2-B25E-E50D3BCB7D57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3862068965517244E-2"/>
+                  <c:y val="-2.1217868328455994E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E6F0-41F2-B25E-E50D3BCB7D57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.455172413793112E-2"/>
+                  <c:y val="1.9418335291166482E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-E6F0-41F2-B25E-E50D3BCB7D57}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Burndown!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Burndown!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E6F0-41F2-B25E-E50D3BCB7D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="300908536"/>
-        <c:axId val="300903616"/>
+        <c:axId val="773658672"/>
+        <c:axId val="773657360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="300908536"/>
+        <c:axId val="773658672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300903616"/>
+        <c:crossAx val="773657360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,524 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300903616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t> Story</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Points</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="300908536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Actual Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Burndown Chart for Sprint 3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Burndown!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual (in story points)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Burndown!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Burndown!$B$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBD7-4171-8920-F17066F602F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="583343320"/>
-        <c:axId val="583336760"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="583343320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Days</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="583336760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="583336760"/>
+        <c:axId val="773657360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583343320"/>
+        <c:crossAx val="773658672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1753,6 +1460,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1791,46 +1529,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2386,543 +2084,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0CDDA3-A623-40CE-ACF7-6662DEBE789C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998BAA3-6891-435C-803C-D19264275420}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,42 +2117,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E2EC1D-2261-4A88-8C70-2E805DE3FF57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3001,17 +2147,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B31CD5ED-DA30-4B5B-9C2E-BD07FBAC5C04}" name="Table1" displayName="Table1" ref="A1:K11" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" totalsRowDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:K10" xr:uid="{4F9759AE-BCDD-4C93-BCA3-CA94BFA349CB}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3ACA0BEF-0DA9-435F-A244-9672369B292D}" name="User Stories" dataDxfId="21" totalsRowDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6DF7373E-780B-4E1C-BCF0-8615D6B337E5}" name="Tasks" dataDxfId="20" totalsRowDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D38495B2-E249-445F-8D51-8F668993E4A3}" name="Dependency" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D1964B85-D35A-4849-B42D-0A0B7B68C7CD}" name="Story Points" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D0DD318F-1642-444A-A573-1CB8CE779AA1}" name="1" dataDxfId="17" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E11F2DB4-BF31-48F4-9587-DD065D2831E2}" name="2" dataDxfId="16" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{FA4A994B-7981-4C59-983E-DB99A0267023}" name="3" totalsRowDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B24FEE48-3B4F-4046-8BAE-3ED79A683D7A}" name="4" dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{12163C1F-33DD-4916-9BD4-F716888134BC}" name="5" dataDxfId="14" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{D01478F4-27AB-4127-84CE-DE02C992490D}" name="6" dataDxfId="13" totalsRowDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{2AF698B0-89D9-4053-8508-224FD96C396F}" name="7" dataDxfId="12" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3ACA0BEF-0DA9-435F-A244-9672369B292D}" name="User Stories" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6DF7373E-780B-4E1C-BCF0-8615D6B337E5}" name="Tasks" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D38495B2-E249-445F-8D51-8F668993E4A3}" name="Dependency" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D1964B85-D35A-4849-B42D-0A0B7B68C7CD}" name="Story Points" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{D0DD318F-1642-444A-A573-1CB8CE779AA1}" name="1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E11F2DB4-BF31-48F4-9587-DD065D2831E2}" name="2" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{FA4A994B-7981-4C59-983E-DB99A0267023}" name="3" totalsRowDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B24FEE48-3B4F-4046-8BAE-3ED79A683D7A}" name="4" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{12163C1F-33DD-4916-9BD4-F716888134BC}" name="5" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{D01478F4-27AB-4127-84CE-DE02C992490D}" name="6" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{2AF698B0-89D9-4053-8508-224FD96C396F}" name="7" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3021,7 +2167,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05D8F1E3-0789-4F1C-A68C-AC72022968A7}" name="burndown" displayName="burndown" ref="A1:I5" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I5" xr:uid="{B0649E73-B99F-4382-B739-27E9FADA64DE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BEAED5CF-41A6-49A4-8D73-CE3EE0BE9EC2}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{BEAED5CF-41A6-49A4-8D73-CE3EE0BE9EC2}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F65FF7AC-9761-4A5B-95A1-A36B3EEC1F3A}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B57E2A10-2BF4-40E9-91E2-D5DACF4797C0}" uniqueName="3" name="Column3" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{F9713ACA-8B31-4E95-B3DB-ECB502813E2B}" uniqueName="4" name="Column4" queryTableFieldId="4"/>
@@ -3334,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FDF196-0978-4E31-AD1C-547BFF446FB7}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3784,8 +2930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C753B29C-8070-48CF-BECE-85E4DF604635}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,13 +3019,13 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>0</v>
